--- a/data/out/productos_indispensables_{hoy}.xlsx
+++ b/data/out/productos_indispensables_{hoy}.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>Producto</t>
   </si>
@@ -31,208 +31,172 @@
     <t>Código</t>
   </si>
   <si>
+    <t>01048</t>
+  </si>
+  <si>
+    <t>01228</t>
+  </si>
+  <si>
     <t>00776</t>
   </si>
   <si>
-    <t>01228</t>
-  </si>
-  <si>
-    <t>05339</t>
-  </si>
-  <si>
-    <t>00104</t>
+    <t>00365</t>
+  </si>
+  <si>
+    <t>00008</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>00012</t>
+  </si>
+  <si>
+    <t>01826</t>
+  </si>
+  <si>
+    <t>04129</t>
+  </si>
+  <si>
+    <t>06306</t>
+  </si>
+  <si>
+    <t>01232</t>
   </si>
   <si>
     <t>01101</t>
   </si>
   <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
     <t>02304</t>
   </si>
   <si>
-    <t>00086</t>
-  </si>
-  <si>
     <t>00773</t>
   </si>
   <si>
-    <t>06275</t>
+    <t>04616</t>
+  </si>
+  <si>
+    <t>00858</t>
   </si>
   <si>
     <t>00400</t>
   </si>
   <si>
-    <t>04616</t>
+    <t>00166</t>
+  </si>
+  <si>
+    <t>03395</t>
+  </si>
+  <si>
+    <t>03454</t>
+  </si>
+  <si>
+    <t>04242</t>
+  </si>
+  <si>
+    <t>01497</t>
+  </si>
+  <si>
+    <t>03248</t>
+  </si>
+  <si>
+    <t>00634</t>
+  </si>
+  <si>
+    <t>00247</t>
+  </si>
+  <si>
+    <t>00198</t>
+  </si>
+  <si>
+    <t>01192</t>
+  </si>
+  <si>
+    <t>00403</t>
+  </si>
+  <si>
+    <t>03497</t>
+  </si>
+  <si>
+    <t>03770</t>
+  </si>
+  <si>
+    <t>01109</t>
+  </si>
+  <si>
+    <t>02438</t>
+  </si>
+  <si>
+    <t>00792</t>
+  </si>
+  <si>
+    <t>04792</t>
+  </si>
+  <si>
+    <t>04128</t>
+  </si>
+  <si>
+    <t>00876</t>
+  </si>
+  <si>
+    <t>00336</t>
+  </si>
+  <si>
+    <t>00224</t>
   </si>
   <si>
     <t>04106</t>
   </si>
   <si>
-    <t>00166</t>
-  </si>
-  <si>
-    <t>00858</t>
-  </si>
-  <si>
-    <t>06306</t>
-  </si>
-  <si>
-    <t>01137</t>
-  </si>
-  <si>
-    <t>03248</t>
-  </si>
-  <si>
-    <t>04036</t>
-  </si>
-  <si>
-    <t>04034</t>
-  </si>
-  <si>
-    <t>05296</t>
-  </si>
-  <si>
-    <t>03674</t>
-  </si>
-  <si>
-    <t>03730</t>
-  </si>
-  <si>
-    <t>00106</t>
-  </si>
-  <si>
-    <t>01819</t>
-  </si>
-  <si>
-    <t>00336</t>
-  </si>
-  <si>
-    <t>00403</t>
-  </si>
-  <si>
-    <t>02189</t>
-  </si>
-  <si>
-    <t>00868</t>
-  </si>
-  <si>
-    <t>05952</t>
-  </si>
-  <si>
-    <t>02438</t>
-  </si>
-  <si>
-    <t>00996</t>
-  </si>
-  <si>
-    <t>00578</t>
-  </si>
-  <si>
-    <t>05731</t>
-  </si>
-  <si>
-    <t>03071</t>
-  </si>
-  <si>
-    <t>06295</t>
-  </si>
-  <si>
-    <t>01159</t>
-  </si>
-  <si>
-    <t>06255</t>
+    <t>04168</t>
+  </si>
+  <si>
+    <t>00670</t>
+  </si>
+  <si>
+    <t>00901</t>
   </si>
   <si>
     <t>01841</t>
   </si>
   <si>
-    <t>04792</t>
-  </si>
-  <si>
-    <t>05415</t>
-  </si>
-  <si>
-    <t>05166</t>
-  </si>
-  <si>
-    <t>00346</t>
-  </si>
-  <si>
-    <t>03770</t>
+    <t>00396</t>
+  </si>
+  <si>
+    <t>00197</t>
+  </si>
+  <si>
+    <t>00293</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>00122</t>
+  </si>
+  <si>
+    <t>03598</t>
+  </si>
+  <si>
+    <t>00289</t>
+  </si>
+  <si>
+    <t>00563</t>
+  </si>
+  <si>
+    <t>04260</t>
+  </si>
+  <si>
+    <t>03811</t>
   </si>
   <si>
     <t>01139</t>
   </si>
   <si>
-    <t>04619</t>
-  </si>
-  <si>
-    <t>03497</t>
-  </si>
-  <si>
-    <t>01420</t>
-  </si>
-  <si>
-    <t>05736</t>
-  </si>
-  <si>
-    <t>00938</t>
-  </si>
-  <si>
-    <t>05018</t>
-  </si>
-  <si>
-    <t>00973</t>
-  </si>
-  <si>
-    <t>00255</t>
-  </si>
-  <si>
-    <t>00293</t>
-  </si>
-  <si>
-    <t>00197</t>
-  </si>
-  <si>
-    <t>00814</t>
-  </si>
-  <si>
-    <t>01502</t>
-  </si>
-  <si>
-    <t>01659</t>
-  </si>
-  <si>
-    <t>03920</t>
-  </si>
-  <si>
-    <t>06381</t>
-  </si>
-  <si>
-    <t>00417</t>
-  </si>
-  <si>
-    <t>00122</t>
-  </si>
-  <si>
-    <t>01223</t>
-  </si>
-  <si>
-    <t>06383</t>
-  </si>
-  <si>
     <t>03810</t>
   </si>
   <si>
-    <t>05324</t>
-  </si>
-  <si>
-    <t>01032</t>
+    <t>00010</t>
   </si>
   <si>
     <t>06114</t>
@@ -244,340 +208,325 @@
     <t>02548</t>
   </si>
   <si>
+    <t>01716</t>
+  </si>
+  <si>
+    <t>00183</t>
+  </si>
+  <si>
+    <t>03102</t>
+  </si>
+  <si>
     <t>01554</t>
   </si>
   <si>
+    <t>01655</t>
+  </si>
+  <si>
+    <t>00015</t>
+  </si>
+  <si>
+    <t>01171</t>
+  </si>
+  <si>
+    <t>05102</t>
+  </si>
+  <si>
+    <t>00500</t>
+  </si>
+  <si>
+    <t>03875</t>
+  </si>
+  <si>
+    <t>01649</t>
+  </si>
+  <si>
+    <t>00696</t>
+  </si>
+  <si>
     <t>02584</t>
   </si>
   <si>
-    <t>00500</t>
-  </si>
-  <si>
-    <t>01171</t>
-  </si>
-  <si>
-    <t>04543</t>
-  </si>
-  <si>
-    <t>05045</t>
-  </si>
-  <si>
-    <t>03875</t>
-  </si>
-  <si>
-    <t>03726</t>
-  </si>
-  <si>
-    <t>00314</t>
-  </si>
-  <si>
-    <t>05289</t>
-  </si>
-  <si>
-    <t>05279</t>
-  </si>
-  <si>
-    <t>05102</t>
-  </si>
-  <si>
-    <t>01588</t>
-  </si>
-  <si>
-    <t>01649</t>
+    <t>00291</t>
   </si>
   <si>
     <t>02723</t>
   </si>
   <si>
+    <t>04049</t>
+  </si>
+  <si>
     <t>05105</t>
   </si>
   <si>
+    <t>04157</t>
+  </si>
+  <si>
     <t>01153</t>
   </si>
   <si>
-    <t>04329</t>
-  </si>
-  <si>
-    <t>04049</t>
-  </si>
-  <si>
-    <t>04191</t>
-  </si>
-  <si>
-    <t>04145</t>
-  </si>
-  <si>
-    <t>04187</t>
-  </si>
-  <si>
-    <t>00319</t>
+    <t>01326</t>
+  </si>
+  <si>
+    <t>02372</t>
+  </si>
+  <si>
+    <t>03809</t>
+  </si>
+  <si>
+    <t>02257</t>
+  </si>
+  <si>
+    <t>00521</t>
+  </si>
+  <si>
+    <t>04832</t>
+  </si>
+  <si>
+    <t>00132</t>
   </si>
   <si>
     <t>00432</t>
   </si>
   <si>
-    <t>00654</t>
-  </si>
-  <si>
-    <t>02257</t>
-  </si>
-  <si>
-    <t>05312</t>
-  </si>
-  <si>
-    <t>02372</t>
-  </si>
-  <si>
-    <t>05082</t>
-  </si>
-  <si>
-    <t>03809</t>
-  </si>
-  <si>
-    <t>04551</t>
-  </si>
-  <si>
-    <t>00521</t>
+    <t>00780</t>
   </si>
   <si>
     <t>04404</t>
   </si>
   <si>
-    <t>05341</t>
-  </si>
-  <si>
     <t>02590</t>
   </si>
   <si>
-    <t>00132</t>
+    <t>06196</t>
+  </si>
+  <si>
+    <t>00028</t>
+  </si>
+  <si>
+    <t>00830</t>
+  </si>
+  <si>
+    <t>02679</t>
+  </si>
+  <si>
+    <t>00136</t>
+  </si>
+  <si>
+    <t>00130</t>
+  </si>
+  <si>
+    <t>00364</t>
+  </si>
+  <si>
+    <t>00614</t>
+  </si>
+  <si>
+    <t>01151</t>
   </si>
   <si>
     <t>02588</t>
   </si>
   <si>
-    <t>00028</t>
-  </si>
-  <si>
-    <t>00527</t>
-  </si>
-  <si>
-    <t>04832</t>
-  </si>
-  <si>
-    <t>06196</t>
-  </si>
-  <si>
-    <t>00830</t>
-  </si>
-  <si>
-    <t>00309</t>
-  </si>
-  <si>
-    <t>01751</t>
-  </si>
-  <si>
-    <t>00136</t>
-  </si>
-  <si>
-    <t>00364</t>
-  </si>
-  <si>
-    <t>01151</t>
+    <t>02724</t>
+  </si>
+  <si>
+    <t>00152</t>
+  </si>
+  <si>
+    <t>00167</t>
+  </si>
+  <si>
+    <t>00332</t>
+  </si>
+  <si>
+    <t>01257</t>
   </si>
   <si>
     <t>00151</t>
   </si>
   <si>
-    <t>02724</t>
-  </si>
-  <si>
-    <t>00167</t>
-  </si>
-  <si>
-    <t>00152</t>
-  </si>
-  <si>
-    <t>01257</t>
-  </si>
-  <si>
-    <t>00332</t>
+    <t>00348</t>
   </si>
   <si>
     <t>00525</t>
   </si>
   <si>
+    <t>04410</t>
+  </si>
+  <si>
     <t>06315</t>
   </si>
   <si>
-    <t>00348</t>
-  </si>
-  <si>
-    <t>00098</t>
+    <t>00271</t>
+  </si>
+  <si>
+    <t>00889</t>
   </si>
   <si>
     <t>00017</t>
   </si>
   <si>
-    <t>00889</t>
-  </si>
-  <si>
-    <t>00271</t>
+    <t>02281</t>
+  </si>
+  <si>
+    <t>00436</t>
+  </si>
+  <si>
+    <t>00800</t>
+  </si>
+  <si>
+    <t>00558</t>
   </si>
   <si>
     <t>01714</t>
   </si>
   <si>
-    <t>00558</t>
-  </si>
-  <si>
-    <t>00800</t>
-  </si>
-  <si>
-    <t>04159</t>
+    <t>04846</t>
   </si>
   <si>
     <t>03864</t>
   </si>
   <si>
-    <t>00436</t>
-  </si>
-  <si>
     <t>01541</t>
   </si>
   <si>
-    <t>04846</t>
+    <t>00312</t>
   </si>
   <si>
     <t>00127</t>
   </si>
   <si>
+    <t>00363</t>
+  </si>
+  <si>
+    <t>00411</t>
+  </si>
+  <si>
+    <t>04047</t>
+  </si>
+  <si>
     <t>00577</t>
   </si>
   <si>
-    <t>00411</t>
-  </si>
-  <si>
-    <t>00363</t>
-  </si>
-  <si>
     <t>00865</t>
   </si>
   <si>
-    <t>03224</t>
-  </si>
-  <si>
-    <t>00312</t>
-  </si>
-  <si>
-    <t>01229</t>
+    <t>01225</t>
   </si>
   <si>
     <t>03145</t>
   </si>
   <si>
-    <t>00749</t>
+    <t>03474</t>
   </si>
   <si>
     <t>04744</t>
   </si>
   <si>
-    <t>00303</t>
-  </si>
-  <si>
     <t>00155</t>
   </si>
   <si>
-    <t>02794</t>
-  </si>
-  <si>
-    <t>02281</t>
-  </si>
-  <si>
-    <t>03474</t>
+    <t>01292</t>
+  </si>
+  <si>
+    <t>04460</t>
   </si>
   <si>
     <t>00463</t>
   </si>
   <si>
+    <t>00124</t>
+  </si>
+  <si>
+    <t>02701</t>
+  </si>
+  <si>
+    <t>00395</t>
+  </si>
+  <si>
+    <t>04204</t>
+  </si>
+  <si>
     <t>01141</t>
   </si>
   <si>
-    <t>00124</t>
-  </si>
-  <si>
-    <t>04204</t>
+    <t>00744</t>
+  </si>
+  <si>
+    <t>00507</t>
+  </si>
+  <si>
+    <t>01516</t>
+  </si>
+  <si>
+    <t>01761</t>
   </si>
   <si>
     <t>04456</t>
   </si>
   <si>
-    <t>00744</t>
-  </si>
-  <si>
-    <t>00395</t>
-  </si>
-  <si>
     <t>00120</t>
   </si>
   <si>
+    <t>02107</t>
+  </si>
+  <si>
     <t>00150</t>
   </si>
   <si>
-    <t>02107</t>
-  </si>
-  <si>
     <t>00241</t>
   </si>
   <si>
+    <t>00515</t>
+  </si>
+  <si>
     <t>00213</t>
   </si>
   <si>
-    <t>01602</t>
+    <t>04147</t>
   </si>
   <si>
     <t>01545</t>
   </si>
   <si>
-    <t>04147</t>
-  </si>
-  <si>
-    <t>05448</t>
-  </si>
-  <si>
-    <t>00515</t>
+    <t>06102</t>
   </si>
   <si>
     <t>00350</t>
   </si>
   <si>
-    <t>06102</t>
-  </si>
-  <si>
     <t>04378</t>
   </si>
   <si>
     <t>00320</t>
   </si>
   <si>
-    <t>00935</t>
-  </si>
-  <si>
     <t>00055</t>
   </si>
   <si>
     <t>03283</t>
   </si>
   <si>
+    <t>00499</t>
+  </si>
+  <si>
+    <t>00655</t>
+  </si>
+  <si>
     <t>02501</t>
   </si>
   <si>
     <t>01691</t>
   </si>
   <si>
+    <t>00837</t>
+  </si>
+  <si>
     <t>00212</t>
   </si>
   <si>
-    <t>00655</t>
+    <t>01868</t>
   </si>
   <si>
     <t>03168</t>
@@ -586,13 +535,16 @@
     <t>00276</t>
   </si>
   <si>
+    <t>02279</t>
+  </si>
+  <si>
+    <t>01088</t>
+  </si>
+  <si>
     <t>00416</t>
   </si>
   <si>
-    <t>02899</t>
-  </si>
-  <si>
-    <t>04186</t>
+    <t>02295</t>
   </si>
   <si>
     <t>00415</t>
@@ -607,6 +559,9 @@
     <t>01214</t>
   </si>
   <si>
+    <t>00353</t>
+  </si>
+  <si>
     <t>03592</t>
   </si>
   <si>
@@ -616,220 +571,184 @@
     <t>02263</t>
   </si>
   <si>
-    <t>05031</t>
-  </si>
-  <si>
     <t>00675</t>
   </si>
   <si>
+    <t>00787</t>
+  </si>
+  <si>
     <t>01082</t>
   </si>
   <si>
-    <t>05447</t>
+    <t>03591</t>
+  </si>
+  <si>
+    <t>CLAVO 2*10 ACERO POR UNIDAD</t>
+  </si>
+  <si>
+    <t>ANILLO REDUCIDO 3/4"*1/2" PLASTICO ROSCADO BLANCO FP AB3.4</t>
   </si>
   <si>
     <t>BOLSA PLASTICA PEQUEÑA 10KRGS (USO INTERNO) UNIDAD</t>
   </si>
   <si>
-    <t>ANILLO REDUCIDO 3/4"*1/2" PLASTICO ROSCADO BLANCO FP AB3.4</t>
-  </si>
-  <si>
-    <t>NIPLE PLASTICO 1" * 5 CMS</t>
-  </si>
-  <si>
-    <t>SACOS CLASE B</t>
+    <t>DISCO 4 1/2" CORTE EXTRAFINO METAL EXXEL 41-029</t>
+  </si>
+  <si>
+    <t>ALAMBRE C-17.5 LISO HG KILOGRAMO VICSON</t>
+  </si>
+  <si>
+    <t>NIPLE PLASTICO 1" * 13CMS</t>
+  </si>
+  <si>
+    <t>BAILARINA PUNTO NEGRO AGRO APN</t>
+  </si>
+  <si>
+    <t>NIPLE PLASTICO 1 1/2"*15CM SCHEDULE 80 URAPLAST</t>
+  </si>
+  <si>
+    <t>CONFITERIA CARAMELO CHAO/ LOKIÑO/ MIST</t>
+  </si>
+  <si>
+    <t>REGADOR 1/2" MINI WLOBBER MINI BAILARINA DIAMETRO:10MTRS</t>
+  </si>
+  <si>
+    <t>BUSINHG PLASTICO REDUCIDO 3/4" * 1/2"  AZUL/BLANCO/GRIS</t>
   </si>
   <si>
     <t>RAMPLUG PLASTICO VERDE 3"*1/4"</t>
   </si>
   <si>
-    <t>ALAMBRE C-17.5 LISO HG KILOGRAMO VICSON</t>
-  </si>
-  <si>
-    <t>NIPLE PLASTICO 1" * 13CMS</t>
-  </si>
-  <si>
     <t>LLAVE PLASTICA 1" ROSCADA</t>
   </si>
   <si>
-    <t>REGADOR 1/2" NEGRO PLASTICO BOQUILLAS COLORES DOBLE CHORRO 9-12M DIAMETRO</t>
-  </si>
-  <si>
     <t>RIEGO UNION RAPIDA 75MM AGRO/MOM</t>
   </si>
   <si>
-    <t>NIPLE PLASTICO 3/4" * 1 MT AZUL CLASE A</t>
+    <t>CANILLA 1/2"*1/2" PLASTICA 40CMS LAVAMANOS</t>
+  </si>
+  <si>
+    <t>HOJA PARA SEGUETA 18 DIENTES METAL GRUESO LENOX/ BELLOTA</t>
   </si>
   <si>
     <t>BOMBILLO 40W LED INDUSTRIAL E27 KINGSBRIGHT/VERT</t>
   </si>
   <si>
-    <t>CANILLA 1/2"*1/2" PLASTICA 40CMS LAVAMANOS</t>
+    <t>RIEGO UNION RAPIDA 32MM AGRO/FP</t>
+  </si>
+  <si>
+    <t>CANILLA 1/2"*5/8" PLASTICA 40CMS SANITARIO PCP</t>
+  </si>
+  <si>
+    <t>LLAVE CHORRO 1/2" SAM ROSCADA/LISA</t>
+  </si>
+  <si>
+    <t>DISCO 4 1/2" DESBASTE O ESMERILAR METAL DEWALT DW44540/DW44601 TYPE 27</t>
+  </si>
+  <si>
+    <t>GUANTES TEJIDOS CON PUNTOS DE PVC BLANCO/GRIS/ INGCO (EL PAR)</t>
+  </si>
+  <si>
+    <t>HERRAJE Nº 2 PARA BAÑO JOMAI</t>
+  </si>
+  <si>
+    <t>RIEGO ADAPTADOR HEMBRA 63MM * 1 1/2" AGRO/MOM</t>
+  </si>
+  <si>
+    <t>DISCO 4 1/2" CORTE METAL EXTRAFINO INGCO</t>
+  </si>
+  <si>
+    <t>CLAVO 2 1/2" x 11 (POR KILO)</t>
+  </si>
+  <si>
+    <t>MANGUERA PEAD 20MM/1/2" PN10 (150 PSI) AGRO (ROLLO DE 100 MTS)</t>
+  </si>
+  <si>
+    <t>ASIENTO PARA WATER BLANCO MOPLEN</t>
+  </si>
+  <si>
+    <t>RIEGO ABRAZADERA PLASTICA 63MM * 1" MOM</t>
+  </si>
+  <si>
+    <t>PEGO STANDAR GRIS 14KG PEGO OCCIDENTE</t>
+  </si>
+  <si>
+    <t>MECATE ELEFANTE 3/16" #3 1KG MIDE 20MTS (ROLLO 200MTS - 10KG) POR KILO</t>
+  </si>
+  <si>
+    <t>MECHA 17/64" HSS TRUPER COBALTO BAV-17/64</t>
+  </si>
+  <si>
+    <t>SOCATE O BOQUILLA DE PORCELANA E27 CON ROSCA</t>
+  </si>
+  <si>
+    <t>BROCHA 1-1/2" AMARILLA PRETUL BRP-1-1/2</t>
+  </si>
+  <si>
+    <t>CONFITERIA GALLETA FESTIVAL VAINILLA/CHOCOLATE/FRESA/RECREO</t>
+  </si>
+  <si>
+    <t>MECHA 1/4" CONCRETO ROSCO</t>
+  </si>
+  <si>
+    <t>NIPLE PLASTICO 1/2" * 60 CTM AZUL/GRIS CLASE A</t>
+  </si>
+  <si>
+    <t>DISCO 14" DE CORTE METAL TIPO 41 PARA TRONZADORA DEWALT TAIWAN</t>
   </si>
   <si>
     <t>TUERCA 5/16" HEX.UNC G2</t>
   </si>
   <si>
-    <t>RIEGO UNION RAPIDA 32MM AGRO/FP</t>
-  </si>
-  <si>
-    <t>HOJA PARA SEGUETA 18 DIENTES METAL GRUESO LENOX/ BELLOTA</t>
-  </si>
-  <si>
-    <t>REGADOR 1/2" MINI WLOBBER MINI BAILARINA DIAMETRO:10MTRS</t>
-  </si>
-  <si>
-    <t>NIPLE PLASTICO 3/4" * 10CTMS/4"</t>
-  </si>
-  <si>
-    <t>HERRAJE Nº 2 PARA BAÑO JOMAI</t>
-  </si>
-  <si>
-    <t>CANILLA 1/2"*1/2" PLASTICA 60CMS LAVAMANOS</t>
-  </si>
-  <si>
-    <t>CANILLA MALLA 1/2"*1/2" 40CM</t>
-  </si>
-  <si>
-    <t>CABLE SPT 18*2  BLANCO 100% COBRE POR METRO VERT</t>
-  </si>
-  <si>
-    <t>CADENA GALVANIZADA 1/8" 25KG (POR KILO) VERT CG1-825</t>
-  </si>
-  <si>
-    <t>BALANCIN O PALANCA PARA POCETA PLASTICO JOMAI</t>
-  </si>
-  <si>
-    <t>CLAVO 2 1/2" x 12 (POR KILO)</t>
-  </si>
-  <si>
-    <t>NYLON CORDEL PP 30 ROLLO DE 500 KG. (POR ROLLO) ELEFANTE</t>
-  </si>
-  <si>
-    <t>NIPLE PLASTICO 1/2" * 60 CTM AZUL/GRIS CLASE A</t>
-  </si>
-  <si>
-    <t>ASIENTO PARA WATER BLANCO MOPLEN</t>
-  </si>
-  <si>
-    <t>R. MANILLA METALICA AMERICANA 4" SAM</t>
-  </si>
-  <si>
-    <t>LIJA GRANO 220 3M ORIGINAL</t>
-  </si>
-  <si>
-    <t>CERRADURA TIPO POMO METALICO PARA INTERIORES ASTROS</t>
-  </si>
-  <si>
-    <t>MECHA 17/64" HSS TRUPER COBALTO BAV-17/64</t>
-  </si>
-  <si>
-    <t>DESAGUE PLASTICO PARA FREGADERO CON EXTENSION JOMAI</t>
-  </si>
-  <si>
-    <t>NIPLE PLASTICO 1/2" * 1 MT AZUL/GRIS CLASE A</t>
-  </si>
-  <si>
-    <t>LINTERNA LED TIPO MINERO 3W RECARGABLE+CABLE USB</t>
-  </si>
-  <si>
-    <t>REGADOR PLASTICO 3/4" NEGRO BOQUILLAS BRONCE DONE WELL</t>
-  </si>
-  <si>
-    <t>RIEGO ABRAZADERA PLASTICA 125MM * 2" AGRO</t>
-  </si>
-  <si>
-    <t>R. UÑA DE ENGANCHE PARA LAVAMANOS PEQUEÑA INDIVIDUAL</t>
-  </si>
-  <si>
-    <t>BOTAS #39 HASTA #45 DE CAUCHO SANTA NINFA</t>
+    <t>R. VASTAGO DUCHA SAM MANILLA 8"</t>
+  </si>
+  <si>
+    <t>NIPLE PLASTICO 3/4" * 50 CTM AZUL/GRIS CLASE A</t>
+  </si>
+  <si>
+    <t>NIPLE PLASTICO 3/4" * 70 CTMS AZUL/GRIS CLASE A</t>
   </si>
   <si>
     <t>LLAVE PLASTICA 1 1/2" ROSCADA</t>
   </si>
   <si>
-    <t>BROCHA 1-1/2" AMARILLA PRETUL BRP-1-1/2</t>
-  </si>
-  <si>
-    <t>UNION PATENTE HG 1/2"</t>
-  </si>
-  <si>
-    <t>JUEGO DE MECHA PARA CONCRETO 5 PZAS INGCO UAKDB3055</t>
-  </si>
-  <si>
-    <t>CABILLA 5.2MM*6MTS LISA TRIPA DE POLLO (POR UNIDAD)</t>
-  </si>
-  <si>
-    <t>PEGO STANDAR GRIS 14KG PEGO OCCIDENTE</t>
+    <t>RIEGO ABRAZADERA PLASTICA 63MM * 1 1/2" AGRO/FP/MOM</t>
+  </si>
+  <si>
+    <t>DUCHA ELECTRICA CORONA 120V 4600W VARIOS COLORES</t>
+  </si>
+  <si>
+    <t>ANILLO HG 1 1/4"</t>
+  </si>
+  <si>
+    <t>PEGA DE CONTACTO/PEGA ZAPATERA (90 ML) ENVASADO</t>
+  </si>
+  <si>
+    <t>RIEGO ABRAZADERA PLASTICA 32MM * 1/2" AGRO/MOM/FP</t>
+  </si>
+  <si>
+    <t>BALANCIN MANILLA METALICA PARA POCETA</t>
+  </si>
+  <si>
+    <t>NIPLE PLASTICO 3/4" * 80 CMT AZUL/GRIS CLASE A</t>
+  </si>
+  <si>
+    <t>PVC TUBO 75MM/3" 3 MTS * 1.8MM ESP "TIPO A" AMARILLO AGUAS NEGRAS TUBRICA</t>
+  </si>
+  <si>
+    <t>TEE HG 1"</t>
+  </si>
+  <si>
+    <t>LLAVE CHORRO 1/2" BRONCE GRINACA CLASE B</t>
   </si>
   <si>
     <t>NIPLE PLASTICO 3/4" * 15CTMS/6" URAPLAST</t>
   </si>
   <si>
-    <t>VALVULA POZUELO 2" BRONCE</t>
-  </si>
-  <si>
-    <t>RIEGO ABRAZADERA PLASTICA 63MM * 1" MOM</t>
-  </si>
-  <si>
-    <t>JUNTA DRES 1/2" HG</t>
-  </si>
-  <si>
-    <t>CANILLA 1/2"*1/2" 60/50CM FLEXIBLE TRENZADA DE ACERO-NYLON C/ROSCA DE ACERO VALTECH</t>
-  </si>
-  <si>
-    <t>TAPA HEMBRA HG 2"</t>
-  </si>
-  <si>
-    <t>A.F TUBO 1/2"*6MTS DE PEGAR CLASE A GRIS INPLAVEN</t>
-  </si>
-  <si>
-    <t>RIEGO TEE RAPIDA ROSCADA 50MM * 1 1/2" * 50MM MOM</t>
-  </si>
-  <si>
-    <t>UNION PATENTE HG 1"</t>
-  </si>
-  <si>
-    <t>ANILLO HG 1 1/4"</t>
-  </si>
-  <si>
-    <t>DUCHA ELECTRICA CORONA 120V 4600W VARIOS COLORES</t>
-  </si>
-  <si>
-    <t>NIPLE HG 2" *10CTM/4"</t>
-  </si>
-  <si>
-    <t>CLAVO 2 x 14 VICKSON (POR KILO)</t>
-  </si>
-  <si>
-    <t>EXTENSION 1-1/2"*8"  PLASTICA BLANCA PARA FREGADERO JOMAI</t>
-  </si>
-  <si>
-    <t>PLAFON PORTA LAMPARA BAKELITA 4" PLATICO CON SOCATE DE PORCELANA BLANCO</t>
-  </si>
-  <si>
-    <t>MAXICAL 10 KILOS</t>
-  </si>
-  <si>
-    <t>DISCO 4 1/2" DIAMANTADO EXXEL</t>
-  </si>
-  <si>
-    <t>RIEGO ABRAZADERA PLASTICA 32MM * 1/2" AGRO/MOM/FP</t>
-  </si>
-  <si>
-    <t>CONEXION PARA MANGUERA BRONCE 1/2" COMPLETA (HEMBRA Y MACHO)</t>
-  </si>
-  <si>
-    <t>CONFITERIA TRIDENT YERBABUENA 8.5G</t>
-  </si>
-  <si>
     <t>LLAVE CHORRO 1/2" BRONCE GRINACA CON CONEXION (ORIGINAL)</t>
   </si>
   <si>
-    <t>BOTELLA SPRAY PLASTICA VARIOS COLORES 500ML</t>
-  </si>
-  <si>
-    <t>LLAVE 1/2" ESFERICA  (ORIGINAL) GRINACA</t>
+    <t>LLAVE 1/2" ESFERICA GRINACA COLOMBIA</t>
   </si>
   <si>
     <t>CEMENTO BLANCO (POR KG) ARGOS COLOMBIANO</t>
@@ -841,340 +760,325 @@
     <t>GOMA REDUCTORA 2"*1 1/4" PARA LAVAMANOS</t>
   </si>
   <si>
+    <t>MASCARILLA KN95 BLANCA/COLORES</t>
+  </si>
+  <si>
+    <t>RIEGO TEE RAPIDA 20MM AGRO</t>
+  </si>
+  <si>
+    <t>MANGUERA 3/8" PARA GAS ESTRIADA NEGRA (POR METRO)</t>
+  </si>
+  <si>
     <t>CLAVO 1-1/2 * 14 CON CABEZA (POR KILO)</t>
   </si>
   <si>
+    <t>PVC YEE 75MM / 3" 3.2MM STANDAR AGUAS NEGRAS</t>
+  </si>
+  <si>
+    <t>RIEGO ADAPTADOR HEMBRA 50MM * 1" AGRO</t>
+  </si>
+  <si>
+    <t>GRAPAS HG 1*9  TREXA/ MEJIA (POR KILOGRAMO)</t>
+  </si>
+  <si>
+    <t>COPIA DE LLAVE</t>
+  </si>
+  <si>
+    <t>TEIPE ELECTRICO 3/4"*18MTS  NEGRO COBRA</t>
+  </si>
+  <si>
+    <t>RIEGO ADAPTADOR HEMBRA 75 MM * 2" AGRO/MOM</t>
+  </si>
+  <si>
+    <t>A.C CODO 1/2" DE PEGAR</t>
+  </si>
+  <si>
+    <t>PVC ANILLO REDUCIDO 75MM/3"X50MM/2" "TIPO A" AGUAS NEGRAS AMARILLO</t>
+  </si>
+  <si>
     <t>LLAVE PLASTICA 1/2" ROSCADA</t>
   </si>
   <si>
-    <t>TEIPE ELECTRICO 3/4"*18MTS  NEGRO COBRA</t>
-  </si>
-  <si>
-    <t>GRAPAS HG 1*9  TREXA/ MEJIA (POR KILOGRAMO)</t>
-  </si>
-  <si>
-    <t>PINTURA EN SPRAY VARIOS COLORES MASSO EXCEPTO AT,ORO,FLUORESENTE</t>
-  </si>
-  <si>
-    <t>CAJETIN METALICO OCTOGONAL 4" * 1/2" * 3/4"</t>
-  </si>
-  <si>
-    <t>RIEGO ADAPTADOR HEMBRA 75 MM * 2" AGRO/MOM</t>
-  </si>
-  <si>
-    <t>RAMPLUG METALICO 5/16" CON TORNILLO</t>
-  </si>
-  <si>
-    <t>ANILLO HG 1 1/2"</t>
-  </si>
-  <si>
-    <t>CODO PLASTICO 1/2" ROSCADO GRIS</t>
-  </si>
-  <si>
-    <t>GRIFERIA LAVAMANOS 1/2"  PLASTICA BLANCA GRI-070/071/072/073</t>
-  </si>
-  <si>
-    <t>COPIA DE LLAVE</t>
-  </si>
-  <si>
-    <t>CLAVO 2 x 10 DULCE POR KILO</t>
-  </si>
-  <si>
-    <t>A.C CODO 1/2" DE PEGAR</t>
+    <t>ANILLO HG 1"</t>
   </si>
   <si>
     <t>RIEGO UNION RAPIDA 20MM AGRO/MOM</t>
   </si>
   <si>
+    <t>PVC TUBO 110MM/4" * 3 MTS * 2.2MM ESP. "TIPO A"  AGUAS NEGRAS AMARILLO</t>
+  </si>
+  <si>
     <t>DISCO 7" DESBASTE METAL TIPO 27 DEWALT/BRULLEN</t>
   </si>
   <si>
+    <t>CONFITERIA HALLS 9 CARAMELOS</t>
+  </si>
+  <si>
     <t>TOMA DOBLE 270 2*15A POLARIZADA CON TAPA BLANCO</t>
   </si>
   <si>
-    <t>BUSINHG PLASTICO REDUCIDO 1" * 1/2"</t>
-  </si>
-  <si>
-    <t>PVC TUBO 110MM/4" * 3 MTS * 2.2MM ESP. "TIPO A"  AGUAS NEGRAS AMARILLO</t>
-  </si>
-  <si>
-    <t>RIEGO ADAPTADOR MACHO 40MM * 1 1/4" MOM/AGRO</t>
-  </si>
-  <si>
-    <t>MACROFIBRA 3D PACK1 (UNA PACA CEMENTO)</t>
-  </si>
-  <si>
-    <t>SOLDADURA 1/8" ALUMINIO WEST ARCO (POR VARILLA)72 KILO</t>
-  </si>
-  <si>
-    <t>ANILLO HG 2"</t>
+    <t>UNION CORRIDO CABLE COAXIAL PARA TV</t>
+  </si>
+  <si>
+    <t>PEGATANKE EPOXI 30 MINUTOS ORIGINAL/BLANCA/ACERO/TRANSPARENTE 44G</t>
+  </si>
+  <si>
+    <t>R. MANILLA METALICA AMERICANA 8"  SAM</t>
+  </si>
+  <si>
+    <t>RIEGO ABRAZADERA PLASTICA 50MM * 1" AGRO/FP/MOM</t>
+  </si>
+  <si>
+    <t>INTERRUPTOR SUPERFICIAL MORROCOY CON TORNILLOS</t>
+  </si>
+  <si>
+    <t>RIEGO ADAPTADOR MACHO 40MM * 1" AGRO</t>
+  </si>
+  <si>
+    <t>TEFLON 3/4"*15M SEMILIC/KOBATEX</t>
   </si>
   <si>
     <t>ANILLO 3/4" PLASTICO ROSCADO BLANCO/GRIS</t>
   </si>
   <si>
-    <t>NIPLE HG 2" *7.5 CTM/3" SEMI CORRIDO</t>
-  </si>
-  <si>
-    <t>RIEGO ABRAZADERA PLASTICA 50MM * 1" AGRO/FP/MOM</t>
-  </si>
-  <si>
-    <t>TOMA DOBLE 270 2*20 AMP CON TIERRA + TAPA BLANCO CLASSIC LUX</t>
-  </si>
-  <si>
-    <t>PEGATANKE EPOXI 30 MINUTOS ORIGINAL/BLANCA/ACERO/TRANSPARENTE 44G</t>
-  </si>
-  <si>
-    <t>OXIDO PARA PISO ALEMAN NEGRO (100 GRAMOS)</t>
-  </si>
-  <si>
-    <t>R. MANILLA METALICA AMERICANA 8"  SAM</t>
-  </si>
-  <si>
-    <t>JUNTA DRES 1/2" PLASTICA AGUA FRIA ALTA PRESION GRIS</t>
-  </si>
-  <si>
-    <t>INTERRUPTOR SUPERFICIAL MORROCOY CON TORNILLOS</t>
+    <t>RIEGO ADAPTADOR MACHO 63MM * 2" AGRO</t>
   </si>
   <si>
     <t>NIPLE PLASTICO 1/2" * 10CTMS/4" PVC AZUL</t>
   </si>
   <si>
-    <t>CABLE 14 100% COBRE ROLLO DE 100 MTS AMARILLO/VERDE/ROJO (POR METRO) NACIONAL ICONEL</t>
-  </si>
-  <si>
     <t>RIEGO UNION RAPIDA 25MM AGRO</t>
   </si>
   <si>
-    <t>TEFLON 3/4"*15M SEMILIC/KOBATEX</t>
+    <t>ABRAZADERA METALICA 3/8" 6MM-13MM</t>
+  </si>
+  <si>
+    <t>TEFLON PROF 1/2 * 10 MTS SUPER EXTRA LUZ/P.T.F.E</t>
+  </si>
+  <si>
+    <t>RIEGO ABRAZADERA PLASTICA 110MM * 2" AGRO/MOM</t>
+  </si>
+  <si>
+    <t>NIPLE HG 1" * 5 CTMRS/2" SEMI CORRIDO</t>
+  </si>
+  <si>
+    <t>RIEGO ABRAZADERA PLASTICA 75MM * 1" AGRO</t>
+  </si>
+  <si>
+    <t>RIEGO ABRAZADERA PLASTICA 63MM *1/2" AGRO/FP</t>
+  </si>
+  <si>
+    <t>CODO HG 3/4"</t>
+  </si>
+  <si>
+    <t>LLAVE PLASTICA 2" ROSCADA</t>
+  </si>
+  <si>
+    <t>BUSINHG HG 1 * 1/2"</t>
   </si>
   <si>
     <t>LLAVE PLASTICA 3/4" ROSCADA</t>
   </si>
   <si>
-    <t>TEFLON PROF 1/2 * 10 MTS SUPER EXTRA LUZ/P.T.F.E</t>
-  </si>
-  <si>
-    <t>NIPLE PLASTICO 1/2" * 80 CTM AZUL/GRIS CLASE A</t>
-  </si>
-  <si>
-    <t>RIEGO ADAPTADOR MACHO 40MM * 1" AGRO</t>
-  </si>
-  <si>
-    <t>ABRAZADERA METALICA 3/8" 6MM-13MM</t>
-  </si>
-  <si>
-    <t>RIEGO ABRAZADERA PLASTICA 110MM * 2" AGRO/MOM</t>
-  </si>
-  <si>
-    <t>ANILLO REDUCIDO 1"*1/2" PLASTICO ROSCADO</t>
-  </si>
-  <si>
-    <t>LIJA GRANO 180 3M ORIGINAL</t>
-  </si>
-  <si>
-    <t>RIEGO ABRAZADERA PLASTICA 75MM * 1" AGRO</t>
-  </si>
-  <si>
-    <t>CODO HG 3/4"</t>
-  </si>
-  <si>
-    <t>BUSINHG HG 1 * 1/2"</t>
+    <t>RIEGO UNION RAPIDA 50MM AGRO/FP</t>
+  </si>
+  <si>
+    <t>RIEGO ADAPTADOR MACHO 40 MM * 1 1/2" AGRO</t>
+  </si>
+  <si>
+    <t>RIEGO UNION RAPIDA 40 MM AGRO</t>
+  </si>
+  <si>
+    <t>ANILLO REDUCIDO HG 3/4" *1/2"</t>
+  </si>
+  <si>
+    <t>NIPLE PLASTICO 2" * 15 CTMS URAPLAST</t>
   </si>
   <si>
     <t>RIEGO ADAPTADOR MACHO 32MM * 1" AGRO/MOM</t>
   </si>
   <si>
-    <t>RIEGO UNION RAPIDA 50MM AGRO/FP</t>
-  </si>
-  <si>
-    <t>RIEGO UNION RAPIDA 40 MM AGRO</t>
-  </si>
-  <si>
-    <t>RIEGO ADAPTADOR MACHO 40 MM * 1 1/2" AGRO</t>
-  </si>
-  <si>
-    <t>NIPLE PLASTICO 2" * 15 CTMS URAPLAST</t>
-  </si>
-  <si>
-    <t>ANILLO REDUCIDO HG 3/4" *1/2"</t>
+    <t>TEE HG 1/2"</t>
   </si>
   <si>
     <t>CODO NIPLE HG 1/2"</t>
   </si>
   <si>
+    <t>PVC YEE 50MM/2" AGUAS NEGRAS  AMARILLA</t>
+  </si>
+  <si>
     <t>TUBO PLASTICO 1/2"*6MTS AZUL SHEDULE INPLAVEN</t>
   </si>
   <si>
-    <t>TEE HG 1/2"</t>
-  </si>
-  <si>
-    <t>CONEXION PLASTICA 3/4" NEGRA PARA TANQUE</t>
+    <t>PVC SEMI CODO 75MM/3" AGUAS NEGRAS AMARILLO</t>
+  </si>
+  <si>
+    <t>RIEGO ABRAZADERA PLASTICA 20MM * 1/2" AGRO</t>
   </si>
   <si>
     <t>RIEGO ADAPTADOR MACHO 50 MM * 1 1/2" AGRO</t>
   </si>
   <si>
-    <t>RIEGO ABRAZADERA PLASTICA 20MM * 1/2" AGRO</t>
-  </si>
-  <si>
-    <t>PVC SEMI CODO 75MM/3" AGUAS NEGRAS AMARILLO</t>
+    <t>TORNILLO DRYWALL Nº 8*1" POR UNIDAD VERT</t>
+  </si>
+  <si>
+    <t>PVC ANILLO REDUCIDO 110MM/4"X75MM/3" AGUAS NEGRAS AMARILLO</t>
+  </si>
+  <si>
+    <t>KIT ORING 419 PIEZAS</t>
+  </si>
+  <si>
+    <t>NIPLE HG 1/2" * 7.5 CM/3"</t>
   </si>
   <si>
     <t>NIPLE PLASTICO 1/2" CORRIDO 4.5 CM</t>
   </si>
   <si>
-    <t>NIPLE HG 1/2" * 7.5 CM/3"</t>
-  </si>
-  <si>
-    <t>KIT ORING 419 PIEZAS</t>
-  </si>
-  <si>
-    <t>CONFITERIA TURRON VARIOS</t>
+    <t>RIEGO ABRAZADERA PLASTICA 40MM * 1" AGRO/FP</t>
   </si>
   <si>
     <t>ENCHUFE AEREO NO PORALIZADO 2X15A 125V  METAL Y VINIL AMARILLO</t>
   </si>
   <si>
-    <t>PVC ANILLO REDUCIDO 110MM/4"X75MM/3" AGUAS NEGRAS AMARILLO</t>
-  </si>
-  <si>
     <t>NIPLE HG 1/2"*5CM/2"</t>
   </si>
   <si>
-    <t>RIEGO ABRAZADERA PLASTICA 40MM * 1" AGRO/FP</t>
+    <t>RIEGO ABRAZADERA PLASTICA 40MM * 3/4" AGRO/ F.P/MOM</t>
   </si>
   <si>
     <t>RIEGO ABRAZADERA PLASTICA 50MM * 1/2" AGRO/MOM</t>
   </si>
   <si>
+    <t>CODO HG 1/2"</t>
+  </si>
+  <si>
+    <t>RIEGO ABRAZADERA PLASTICA 32MM * 1" AGRO</t>
+  </si>
+  <si>
+    <t>PVC TUBO 50MM/2" 3 MTS * 1.8MM ESP. "TIPO A" AMARILLO AGUAS NEGRAS</t>
+  </si>
+  <si>
     <t>NIPLE PLASTICO 1/2" * 50 CTM AZUL/GRIS CLASE A</t>
   </si>
   <si>
-    <t>RIEGO ABRAZADERA PLASTICA 32MM * 1" AGRO</t>
-  </si>
-  <si>
-    <t>CODO HG 1/2"</t>
-  </si>
-  <si>
     <t>LIJA GRANO 120 3M ORIGINAL</t>
   </si>
   <si>
-    <t>CURVA 3/4" BLANCA  PVC ELECTRIDAD TUBRICA</t>
-  </si>
-  <si>
-    <t>RIEGO ABRAZADERA PLASTICA 40MM * 3/4" AGRO/ F.P/MOM</t>
-  </si>
-  <si>
-    <t>TEE PLASTICA 1/2" BLANCA</t>
+    <t>CONFITERIACHUPETA BIG BOM/ SUPER COCO</t>
   </si>
   <si>
     <t>CONEXION PLASTICA 1/2" NEGRA PARA TANQUE</t>
   </si>
   <si>
-    <t>TUERCA 3/8" GALVANIZADA HEX. UNC G2 RGRUESA TANQUE AUSTRALIANO</t>
+    <t>PVC CODO 75MM/3" "TIPO A" AGUAS NEGRAS AMARILLO</t>
   </si>
   <si>
     <t>EMPACADURA 3/4" PLANA  PARA MANGUERA (POR UNIDAD) NEGRA/AMARILLO</t>
   </si>
   <si>
-    <t>ANILLO REDUCIDO HG 1" *1/2"</t>
-  </si>
-  <si>
     <t>RIEGO ADAPTADOR MACHO 50 MM * 2" AGRO/MOM</t>
   </si>
   <si>
-    <t>ARANDELA PLANA 3/8" NACIONAL TANQUE AUSTRALIANO</t>
-  </si>
-  <si>
-    <t>TORNILLO DRYWALL Nº 8*1" POR UNIDAD VERT</t>
-  </si>
-  <si>
-    <t>PVC CODO 75MM/3" "TIPO A" AGUAS NEGRAS AMARILLO</t>
+    <t>YESQUERO UNIVERSAL</t>
+  </si>
+  <si>
+    <t>CABLE SPT 12 * 2 SPT BIMETALICO HUNTER (60-40) 600V</t>
   </si>
   <si>
     <t>RIEGO ADAPTADOR MACHO 20 MM * 1/2" AGRO/MOM</t>
   </si>
   <si>
+    <t>RIEGO ABRAZADERA PLASTICA 40MM * 1/2" AGRO</t>
+  </si>
+  <si>
+    <t>RAMPLUG PLASTICO ROJO 3/16"*3"</t>
+  </si>
+  <si>
+    <t>RIEGO ABRAZADERA PLASTICA 32MM * 3/4" AGRO/FP</t>
+  </si>
+  <si>
+    <t>DRIZA-CORDON 4.0MM BLANCO ROLLO 250MTS (POR METRO)</t>
+  </si>
+  <si>
     <t>BUSINHG HG 1 * 3/4"</t>
   </si>
   <si>
-    <t>RIEGO ABRAZADERA PLASTICA 40MM * 1/2" AGRO</t>
-  </si>
-  <si>
-    <t>DRIZA-CORDON 4.0MM BLANCO ROLLO 250MTS (POR METRO)</t>
+    <t>RIEGO ABRAZADERA PLASTICA 50MM* 3/4" AGRO/MOM/FP</t>
+  </si>
+  <si>
+    <t>LIJA GRANO 80 3M ORIGINAL</t>
+  </si>
+  <si>
+    <t>CABLE SPT 12*2  SPT BLANCO 100% COBRE</t>
+  </si>
+  <si>
+    <t>A.F ADAPTADOR 1/2" MACHO DE PEGAR PAVCO/TUBRICA/UNITECA/NAUTILUS/FERMETAL/VINKO</t>
   </si>
   <si>
     <t>ANILLO REDUCIDO 1" * 3/4" PLASTICO ROSCADO BLANCO</t>
   </si>
   <si>
-    <t>RIEGO ABRAZADERA PLASTICA 50MM* 3/4" AGRO/MOM/FP</t>
-  </si>
-  <si>
-    <t>RIEGO ABRAZADERA PLASTICA 32MM * 3/4" AGRO/FP</t>
-  </si>
-  <si>
     <t>RIEGO ABRAZADERA PLASTICA 25MM * 3/4" AGRO</t>
   </si>
   <si>
+    <t>RIEGO ADAPTADOR MACHO 75 MM * 2 1/2" AGRO/MON</t>
+  </si>
+  <si>
     <t>RIEGO ADAPTADOR MACHO 25MM * 3/4" AGRO</t>
   </si>
   <si>
-    <t>RIEGO ADAPTADOR MACHO 75 MM * 2 1/2" AGRO/MON</t>
-  </si>
-  <si>
     <t>NIPLE HG 3/4" * 4 CTM SEMI CORRIDO</t>
   </si>
   <si>
+    <t>REGADOR 1/2" PLASTICO AMARILLO CON NEGRO DIAMETRO 20MTRS</t>
+  </si>
+  <si>
     <t>BAILARINA PUNTO ROJO AGRO APR</t>
   </si>
   <si>
-    <t>RAMPLUG PLASTICO NARANJA 2"*3/8"</t>
+    <t>PLAFON PORTA LAMPARA 4" CERAMICA BLANCO E-27 4A 250V</t>
   </si>
   <si>
     <t>RIEGO ABRAZADERA PLASTICA 25MM * 1/2" AGRO</t>
   </si>
   <si>
-    <t>PLAFON PORTA LAMPARA 4" CERAMICA BLANCO E-27 4A 250V</t>
-  </si>
-  <si>
-    <t>TORNILLO DRYWALL Nº 8*1 1/2"</t>
-  </si>
-  <si>
-    <t>REGADOR 1/2" PLASTICO AMARILLO CON NEGRO DIAMETRO 20MTRS</t>
+    <t>RIEGO ADAPTADOR HEMBRA 32 MM * 3/4" AGRO/ F.P/MOM</t>
   </si>
   <si>
     <t>TEE HG 3/4"</t>
   </si>
   <si>
-    <t>RIEGO ADAPTADOR HEMBRA 32 MM * 3/4" AGRO/ F.P/MOM</t>
-  </si>
-  <si>
     <t>NIPLE PLASTICO 3/4" * 5 CTMS/2" O 4 CTM 1 1/2"</t>
   </si>
   <si>
     <t>BUSINHG HG 3/4" * 1/2"</t>
   </si>
   <si>
-    <t>BOLSA 200 LITROS AZUL PARA BASURA POR UNIDAD</t>
-  </si>
-  <si>
     <t>PVC SEMI CODO 50MM/2" AGUAS NEGRAS</t>
   </si>
   <si>
     <t>RIEGO ABRAZADERA PLASTICA 63MM * 3/4" AGRO/MOM/FP</t>
   </si>
   <si>
+    <t>LIJA GRANO 80 SPEED</t>
+  </si>
+  <si>
+    <t>PVC CODO 50MM/2" "TIPO A" AGUAS NEGRAS AMARILLO</t>
+  </si>
+  <si>
     <t>ANILLO 1/2" PLASTICO ROSCADO BLANCO</t>
   </si>
   <si>
     <t>TORNILLO 8*1-1/2" AUTOROSCANTE ESTRIA</t>
   </si>
   <si>
+    <t>NIPLE HG 1/2" CORRIDO</t>
+  </si>
+  <si>
     <t>BAILARINA PUNTO BLANCO AGRO APB</t>
   </si>
   <si>
-    <t>PVC CODO 50MM/2" "TIPO A" AGUAS NEGRAS AMARILLO</t>
+    <t>REMACHE ALUMINIO ALA CORTA/ANCHA PEQUEÑO</t>
   </si>
   <si>
     <t>NIPLE HG 1/2" * 10 CTM/4"</t>
@@ -1183,13 +1087,16 @@
     <t>TAPA HEMBRA HG 1/2"</t>
   </si>
   <si>
+    <t>TORNILLO 6*1 1/2" AUTOROSCANTE ESTRIA</t>
+  </si>
+  <si>
+    <t>CLAVO ACERO 1" RANURADO (POR UNIDAD)</t>
+  </si>
+  <si>
     <t>ANILLO HG 3/4"</t>
   </si>
   <si>
-    <t>TORNILLO 8*1" AUTOROSCANTE ESTRIA</t>
-  </si>
-  <si>
-    <t>SOLDADURA SUPERCITO E7018 WEST ARCO (POR VARILLA)31 VARILLAS 1KILO</t>
+    <t>SOPORTE 1/2" RECTO DE ALUMINIO PARA TUBO CORTINERO C/U</t>
   </si>
   <si>
     <t>ANILLO HG 1/2"</t>
@@ -1204,6 +1111,9 @@
     <t>BOLSA PLASTICA GRANDE 20 Y 25 kgrs (USO INTERNO) UNIDAD</t>
   </si>
   <si>
+    <t>TORNILLO DRYWALL Nº 8 *2-1/2"</t>
+  </si>
+  <si>
     <t>REMACHE ALUMINIO ALA CORTA/ANCHA GRANDE</t>
   </si>
   <si>
@@ -1213,16 +1123,16 @@
     <t>CAJETIN PLASTICO RECTANGULAR 2"x4"x1/2"x3/4" BLANCO NACIONAL</t>
   </si>
   <si>
-    <t>ARANDELA PLANA 1/4" NACIONAL</t>
-  </si>
-  <si>
     <t>SOLDADURA 1/8" AZUL GRUESA WEST ARCO (POR UNIDAD) 36 KILO</t>
   </si>
   <si>
+    <t>TORNILLO 6*3/4" AUTOROSCANTE ESTRIA</t>
+  </si>
+  <si>
     <t>AMARRA TIRRA CABLE MEDIANO NEGRO/BLANCO (8"-14"/20CTMS A 40 CTMS)</t>
   </si>
   <si>
-    <t>TORNILLO DRYWALL Nº 6*1/2"</t>
+    <t>REMACHE ALUMINIO ALA CORTA/ANCHA MEDIANO</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1608,16 +1518,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E2">
-        <v>-98</v>
+        <v>-156</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1625,16 +1535,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>190</v>
       </c>
       <c r="D3">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E3">
-        <v>-89</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1642,16 +1552,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E4">
-        <v>-84</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1659,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>-61</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1676,16 +1586,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>-7</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>-41</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1693,16 +1603,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C7">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>-29</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1710,16 +1620,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>-27</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1727,16 +1637,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>-25</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1744,16 +1654,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C10">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>-21</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1761,16 +1671,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>-16</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1778,16 +1688,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>-15</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1795,16 +1705,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E13">
-        <v>-14</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1812,16 +1722,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E14">
-        <v>-12</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1829,16 +1739,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1846,16 +1756,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>-7</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1863,16 +1773,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>-6</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1880,16 +1790,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>-5</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1897,16 +1807,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>-5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1914,16 +1824,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1931,16 +1841,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1948,16 +1858,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1965,16 +1875,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C23">
-        <v>20.7</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>-2.300000000000001</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1982,16 +1892,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>-2.1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1999,13 +1909,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>-2</v>
@@ -2016,16 +1926,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C26">
-        <v>0.58</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>-1.42</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2033,16 +1943,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2050,16 +1960,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2067,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2084,16 +1994,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2101,16 +2011,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2118,16 +2028,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4.44</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2135,16 +2045,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2152,16 +2062,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34">
         <v>3</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2169,16 +2079,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2186,16 +2096,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
         <v>3</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2203,16 +2113,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2220,16 +2130,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2237,16 +2147,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2254,16 +2164,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>28</v>
+      </c>
+      <c r="E40">
         <v>5</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2271,16 +2181,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2288,16 +2198,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2305,16 +2215,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2322,16 +2232,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2339,16 +2249,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C45">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2356,16 +2266,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2373,16 +2283,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C47">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2390,16 +2300,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2407,16 +2317,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2424,16 +2334,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2441,16 +2351,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E51">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2458,16 +2368,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2475,16 +2385,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C53">
-        <v>10.87</v>
+        <v>20</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E53">
-        <v>8.869999999999999</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2492,16 +2402,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2509,16 +2419,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C55">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2526,16 +2436,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2543,16 +2453,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2560,16 +2470,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C58">
+        <v>34.2</v>
+      </c>
+      <c r="D58">
         <v>16</v>
       </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
       <c r="E58">
-        <v>11</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2577,16 +2487,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C59">
-        <v>13.19</v>
+        <v>27</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>12.19</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2594,16 +2504,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2611,16 +2521,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2628,16 +2538,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
       <c r="E62">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2645,16 +2555,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C63">
-        <v>17</v>
+        <v>41.4</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E63">
-        <v>14</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2662,16 +2572,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C64">
-        <v>118</v>
+        <v>23.5</v>
       </c>
       <c r="D64">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>14</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2679,16 +2589,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C65">
+        <v>42</v>
+      </c>
+      <c r="D65">
         <v>19</v>
       </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
       <c r="E65">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2696,16 +2606,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2713,16 +2623,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C67">
-        <v>25</v>
+        <v>33.67</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>16</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2730,16 +2640,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2747,16 +2657,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E69">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2764,16 +2674,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C70">
-        <v>34.2</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E70">
-        <v>17.2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2781,16 +2691,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C71">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2798,16 +2708,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C72">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D72">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E72">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2815,16 +2725,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C73">
-        <v>23.5</v>
+        <v>93</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E73">
-        <v>21.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2832,16 +2742,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C74">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D74">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="E74">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2849,16 +2759,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C75">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2866,16 +2776,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C76">
-        <v>33.67</v>
+        <v>39</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>24.67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2883,16 +2793,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C77">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2900,16 +2810,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2917,16 +2827,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C79">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E79">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2934,16 +2844,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C80">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D80">
         <v>5</v>
       </c>
       <c r="E80">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2951,16 +2861,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C81">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2968,16 +2878,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C82">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2985,16 +2895,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C83">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E83">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3002,16 +2912,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C84">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D84">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3019,16 +2929,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C85">
-        <v>33.46</v>
+        <v>69</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>32.46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3036,16 +2946,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C86">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E86">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3053,16 +2963,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C87">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="E87">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3070,16 +2980,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C88">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3087,16 +2997,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C89">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3104,16 +3014,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C90">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3121,16 +3031,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C91">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3138,16 +3048,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C92">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E92">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3155,16 +3065,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C93">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3172,16 +3082,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C94">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3189,16 +3099,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C95">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E95">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3206,16 +3116,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C96">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="D96">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3223,16 +3133,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C97">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3240,16 +3150,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C98">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D98">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3257,16 +3167,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C99">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3274,16 +3184,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C100">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E100">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3291,16 +3201,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C101">
-        <v>46.7</v>
+        <v>89</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E101">
-        <v>44.7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3308,16 +3218,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C102">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E102">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3325,16 +3235,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C103">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E103">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3342,16 +3252,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C104">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="D104">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E104">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3359,16 +3269,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C105">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E105">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3376,16 +3286,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C106">
-        <v>101.8</v>
+        <v>162</v>
       </c>
       <c r="D106">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E106">
-        <v>50.8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3393,16 +3303,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C107">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D107">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E107">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3410,16 +3320,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C108">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D108">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E108">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3427,16 +3337,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C109">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D109">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3444,16 +3354,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C110">
-        <v>69</v>
+        <v>98.34</v>
       </c>
       <c r="D110">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>55</v>
+        <v>89.34</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3461,16 +3371,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C111">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D111">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E111">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3478,16 +3388,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C112">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D112">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3495,16 +3405,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C113">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E113">
-        <v>56</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3512,16 +3422,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C114">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="E114">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3529,16 +3439,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C115">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D115">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>63</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3546,16 +3456,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C116">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E116">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3563,16 +3473,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C117">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D117">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3580,16 +3490,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C118">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="D118">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E118">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3597,16 +3507,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C119">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E119">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3614,16 +3524,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C120">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="D120">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E120">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3631,16 +3541,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C121">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D121">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E121">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3648,16 +3558,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C122">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="D122">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E122">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3665,16 +3575,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C123">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D123">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3682,16 +3592,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C124">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="D124">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E124">
-        <v>76</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3699,16 +3609,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C125">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D125">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E125">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3716,16 +3626,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C126">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E126">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3733,16 +3643,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C127">
-        <v>98.34</v>
+        <v>140</v>
       </c>
       <c r="D127">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E127">
-        <v>87.34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3750,16 +3660,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C128">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="D128">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E128">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3767,16 +3677,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C129">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E129">
-        <v>89</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3784,16 +3694,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C130">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D130">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>94</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3801,16 +3711,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C131">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="D131">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>95</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3818,16 +3728,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C132">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>96</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3835,16 +3745,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C133">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D133">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E133">
-        <v>98</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3852,16 +3762,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C134">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E134">
-        <v>104</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3869,16 +3779,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C135">
-        <v>111</v>
+        <v>179.5</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E135">
-        <v>105</v>
+        <v>165.5</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3886,16 +3796,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C136">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E136">
-        <v>106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3903,16 +3813,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C137">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E137">
-        <v>107</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3920,16 +3830,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C138">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E138">
-        <v>107</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3937,16 +3847,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C139">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="D139">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="E139">
-        <v>108</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3954,16 +3864,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C140">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="D140">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E140">
-        <v>108</v>
+        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3971,16 +3881,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C141">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E141">
-        <v>112</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3988,16 +3898,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C142">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="D142">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E142">
-        <v>120</v>
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4005,16 +3915,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C143">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="D143">
         <v>10</v>
       </c>
       <c r="E143">
-        <v>122</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4022,16 +3932,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C144">
-        <v>153</v>
+        <v>196.9</v>
       </c>
       <c r="D144">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E144">
-        <v>123</v>
+        <v>178.9</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4039,16 +3949,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C145">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E145">
-        <v>125</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4056,16 +3966,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C146">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="D146">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E146">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4073,16 +3983,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C147">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="D147">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E147">
-        <v>133</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4090,16 +4000,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C148">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>134</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4107,16 +4017,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C149">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E149">
-        <v>134</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4124,16 +4034,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C150">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="D150">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E150">
-        <v>134</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4141,16 +4051,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C151">
-        <v>145</v>
+        <v>355</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="E151">
-        <v>140</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4158,16 +4068,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C152">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="D152">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E152">
-        <v>146</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4175,16 +4085,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C153">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="D153">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E153">
-        <v>149</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4192,16 +4102,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C154">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="D154">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E154">
-        <v>149</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4209,16 +4119,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C155">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="D155">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="E155">
-        <v>154</v>
+        <v>259</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4226,16 +4136,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C156">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="D156">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>159</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4243,16 +4153,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C157">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="D157">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E157">
-        <v>160</v>
+        <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4260,16 +4170,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C158">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="D158">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E158">
-        <v>161</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4277,16 +4187,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C159">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="D159">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E159">
-        <v>172</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4294,16 +4204,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C160">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="D160">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E160">
-        <v>173</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4311,16 +4221,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C161">
-        <v>221</v>
+        <v>335</v>
       </c>
       <c r="D161">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E161">
-        <v>178</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4328,16 +4238,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C162">
-        <v>211</v>
+        <v>382</v>
       </c>
       <c r="D162">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E162">
-        <v>178</v>
+        <v>355</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4345,16 +4255,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C163">
-        <v>276</v>
+        <v>453</v>
       </c>
       <c r="D163">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E163">
-        <v>185</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4362,16 +4272,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C164">
-        <v>206</v>
+        <v>391</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E164">
-        <v>193</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4379,16 +4289,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C165">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="D165">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E165">
-        <v>199</v>
+        <v>374</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4396,16 +4306,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C166">
-        <v>205</v>
+        <v>573</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="E166">
-        <v>200</v>
+        <v>379</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4413,16 +4323,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C167">
-        <v>211</v>
+        <v>445.98</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E167">
-        <v>204</v>
+        <v>389.98</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4430,16 +4340,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C168">
-        <v>236</v>
+        <v>407</v>
       </c>
       <c r="D168">
         <v>10</v>
       </c>
       <c r="E168">
-        <v>226</v>
+        <v>397</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4447,16 +4357,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C169">
-        <v>259</v>
+        <v>437</v>
       </c>
       <c r="D169">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E169">
-        <v>232</v>
+        <v>420</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4464,16 +4374,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C170">
-        <v>283</v>
+        <v>453</v>
       </c>
       <c r="D170">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E170">
-        <v>236</v>
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4481,16 +4391,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C171">
-        <v>250</v>
+        <v>506</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E171">
-        <v>242</v>
+        <v>431</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4498,16 +4408,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C172">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="D172">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="E172">
-        <v>244</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4515,16 +4425,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C173">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="D173">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>254</v>
+        <v>477</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4532,16 +4442,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C174">
-        <v>265</v>
+        <v>595</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E174">
-        <v>262</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4549,16 +4459,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C175">
-        <v>269</v>
+        <v>540</v>
       </c>
       <c r="D175">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E175">
-        <v>262</v>
+        <v>532</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4566,16 +4476,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C176">
-        <v>296</v>
+        <v>742</v>
       </c>
       <c r="D176">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E176">
-        <v>273</v>
+        <v>680</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4583,16 +4493,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C177">
-        <v>302</v>
+        <v>858</v>
       </c>
       <c r="D177">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E177">
-        <v>286</v>
+        <v>837</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4600,16 +4510,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C178">
-        <v>327</v>
+        <v>987</v>
       </c>
       <c r="D178">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E178">
-        <v>303</v>
+        <v>934</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4617,16 +4527,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C179">
-        <v>318</v>
+        <v>1188</v>
       </c>
       <c r="D179">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="E179">
-        <v>314</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4634,16 +4544,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C180">
-        <v>328</v>
+        <v>2005</v>
       </c>
       <c r="D180">
-        <v>10</v>
+        <v>888</v>
       </c>
       <c r="E180">
-        <v>318</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4651,16 +4561,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C181">
-        <v>453</v>
+        <v>1284</v>
       </c>
       <c r="D181">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="E181">
-        <v>343</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4668,16 +4578,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C182">
-        <v>391</v>
+        <v>2087</v>
       </c>
       <c r="D182">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="E182">
-        <v>360</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4685,16 +4595,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C183">
-        <v>573</v>
+        <v>3025</v>
       </c>
       <c r="D183">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="E183">
-        <v>361</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4702,16 +4612,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C184">
-        <v>382</v>
+        <v>3591</v>
       </c>
       <c r="D184">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E184">
-        <v>368</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4719,271 +4629,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C185">
-        <v>407</v>
+        <v>11861.78</v>
       </c>
       <c r="D185">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="E185">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B186" t="s">
-        <v>388</v>
-      </c>
-      <c r="C186">
-        <v>437</v>
-      </c>
-      <c r="D186">
-        <v>19</v>
-      </c>
-      <c r="E186">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B187" t="s">
-        <v>389</v>
-      </c>
-      <c r="C187">
-        <v>470</v>
-      </c>
-      <c r="D187">
-        <v>29</v>
-      </c>
-      <c r="E187">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B188" t="s">
-        <v>390</v>
-      </c>
-      <c r="C188">
-        <v>509</v>
-      </c>
-      <c r="D188">
-        <v>31</v>
-      </c>
-      <c r="E188">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B189" t="s">
-        <v>391</v>
-      </c>
-      <c r="C189">
-        <v>505</v>
-      </c>
-      <c r="D189">
-        <v>25</v>
-      </c>
-      <c r="E189">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B190" t="s">
-        <v>392</v>
-      </c>
-      <c r="C190">
-        <v>595</v>
-      </c>
-      <c r="D190">
-        <v>84</v>
-      </c>
-      <c r="E190">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B191" t="s">
-        <v>393</v>
-      </c>
-      <c r="C191">
-        <v>540</v>
-      </c>
-      <c r="D191">
-        <v>15</v>
-      </c>
-      <c r="E191">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B192" t="s">
-        <v>394</v>
-      </c>
-      <c r="C192">
-        <v>742</v>
-      </c>
-      <c r="D192">
-        <v>44</v>
-      </c>
-      <c r="E192">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B193" t="s">
-        <v>395</v>
-      </c>
-      <c r="C193">
-        <v>858</v>
-      </c>
-      <c r="D193">
-        <v>13</v>
-      </c>
-      <c r="E193">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B194" t="s">
-        <v>396</v>
-      </c>
-      <c r="C194">
-        <v>1188</v>
-      </c>
-      <c r="D194">
-        <v>107</v>
-      </c>
-      <c r="E194">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B195" t="s">
-        <v>397</v>
-      </c>
-      <c r="C195">
-        <v>2005</v>
-      </c>
-      <c r="D195">
-        <v>876</v>
-      </c>
-      <c r="E195">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B196" t="s">
-        <v>398</v>
-      </c>
-      <c r="C196">
-        <v>1284</v>
-      </c>
-      <c r="D196">
-        <v>36</v>
-      </c>
-      <c r="E196">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" t="s">
-        <v>399</v>
-      </c>
-      <c r="C197">
-        <v>1306</v>
-      </c>
-      <c r="D197">
-        <v>15</v>
-      </c>
-      <c r="E197">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B198" t="s">
-        <v>400</v>
-      </c>
-      <c r="C198">
-        <v>2087</v>
-      </c>
-      <c r="D198">
-        <v>62</v>
-      </c>
-      <c r="E198">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B199" t="s">
-        <v>401</v>
-      </c>
-      <c r="C199">
-        <v>3591</v>
-      </c>
-      <c r="D199">
-        <v>17</v>
-      </c>
-      <c r="E199">
-        <v>3574</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200" t="s">
-        <v>402</v>
-      </c>
-      <c r="C200">
-        <v>4841</v>
-      </c>
-      <c r="D200">
-        <v>15</v>
-      </c>
-      <c r="E200">
-        <v>4826</v>
+        <v>11759.78</v>
       </c>
     </row>
   </sheetData>
